--- a/donutAnimated/data/dama.xlsx
+++ b/donutAnimated/data/dama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rnadorp/Documents/LOCAL/Private/D3/donutAnimated/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1B7410-97F3-4641-97CF-36B8A79C6618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7DF950-0F00-DF4D-85A9-F5AF41955272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{D9C49528-954F-3645-83C9-C015E3E91DDF}"/>
   </bookViews>
@@ -65,10 +65,6 @@
 Interoperability     </t>
   </si>
   <si>
-    <t xml:space="preserve">Artificial 
-Intelligence                </t>
-  </si>
-  <si>
     <t xml:space="preserve">Document &amp;
 Content management           </t>
   </si>
@@ -91,6 +87,9 @@
   </si>
   <si>
     <t>focusDama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artificial Intelligence                </t>
   </si>
 </sst>
 </file>
@@ -488,7 +487,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,16 +502,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -583,9 +582,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -602,7 +601,7 @@
     </row>
     <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -619,7 +618,7 @@
     </row>
     <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -636,7 +635,7 @@
     </row>
     <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>1</v>
